--- a/Psychometric Grading.xlsx
+++ b/Psychometric Grading.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="429">
   <si>
     <t>SOFTWARE QUALITY GRADE</t>
   </si>
@@ -1624,6 +1624,18 @@
   </si>
   <si>
     <t>Simple C++ Numerical Toolkit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>red background means R packages</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow background means stand alone research projects</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>green background means commercial software(trail version)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2551,10 +2563,10 @@
   <dimension ref="A1:AF168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AE101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="S23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E110" sqref="E110"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2585,7 +2597,9 @@
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="27" t="s">
+        <v>426</v>
+      </c>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
@@ -2600,7 +2614,9 @@
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
-      <c r="R1" s="27"/>
+      <c r="R1" s="27" t="s">
+        <v>427</v>
+      </c>
       <c r="S1" s="27"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
@@ -2612,7 +2628,9 @@
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
+      <c r="AD1" s="22" t="s">
+        <v>428</v>
+      </c>
       <c r="AE1" s="22"/>
       <c r="AF1" s="22"/>
     </row>
